--- a/tests/Casos de prueba.xlsx
+++ b/tests/Casos de prueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documentos\FinalCoderHouse-Veltri\ProyectoFinalCoderHouse-VeltriJonathan\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0017F688-FA11-45C9-BB1F-612AA66F070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7405016D-A89D-4CF0-A680-B7D3B5ED46FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="9">
-        <v>44897</v>
+        <v>44920</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>21</v>
@@ -595,7 +595,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="9">
-        <v>44897</v>
+        <v>44920</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>21</v>
@@ -637,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="9">
-        <v>44897</v>
+        <v>44920</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>30</v>
